--- a/output/AZ_14812722000155.xlsx
+++ b/output/AZ_14812722000155.xlsx
@@ -1571,10 +1571,10 @@
         <v>44165</v>
       </c>
       <c r="B108">
-        <v>1.55389442</v>
+        <v>1.55515737</v>
       </c>
       <c r="C108">
-        <v>-0.004383016573310528</v>
+        <v>-0.003890664791118104</v>
       </c>
     </row>
   </sheetData>

--- a/output/AZ_14812722000155.xlsx
+++ b/output/AZ_14812722000155.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>AZ QUEST TOTAL RETURN FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1195 +383,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40939</v>
       </c>
       <c r="B2">
-        <v>0.001303999999999972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40968</v>
       </c>
       <c r="B3">
-        <v>0.01380099999999995</v>
-      </c>
-      <c r="C3">
         <v>0.01248072513442477</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40999</v>
       </c>
       <c r="B4">
-        <v>0.01255589999999995</v>
-      </c>
-      <c r="C4">
         <v>-0.001228150297740926</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41029</v>
       </c>
       <c r="B5">
-        <v>0.02319080000000007</v>
-      </c>
-      <c r="C5">
         <v>0.01050302506755441</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41060</v>
       </c>
       <c r="B6">
-        <v>0.04044770000000009</v>
-      </c>
-      <c r="C6">
         <v>0.01686576931692518</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41090</v>
       </c>
       <c r="B7">
-        <v>0.05948280000000006</v>
-      </c>
-      <c r="C7">
         <v>0.01829510507832355</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41121</v>
       </c>
       <c r="B8">
-        <v>0.0897129000000001</v>
-      </c>
-      <c r="C8">
         <v>0.02853288415819488</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41152</v>
       </c>
       <c r="B9">
-        <v>0.1137919000000001</v>
-      </c>
-      <c r="C9">
         <v>0.02209664582295012</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41182</v>
       </c>
       <c r="B10">
-        <v>0.1237581999999999</v>
-      </c>
-      <c r="C10">
         <v>0.008948080875790021</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41213</v>
       </c>
       <c r="B11">
-        <v>0.1516343</v>
-      </c>
-      <c r="C11">
         <v>0.02480613712095714</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41243</v>
       </c>
       <c r="B12">
-        <v>0.1618002999999999</v>
-      </c>
-      <c r="C12">
         <v>0.008827455034988052</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41274</v>
       </c>
       <c r="B13">
-        <v>0.1814457</v>
-      </c>
-      <c r="C13">
         <v>0.01690944648576886</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41305</v>
       </c>
       <c r="B14">
-        <v>0.2022739</v>
-      </c>
-      <c r="C14">
         <v>0.01762941792415851</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41333</v>
       </c>
       <c r="B15">
-        <v>0.2209901999999999</v>
-      </c>
-      <c r="C15">
         <v>0.01556741770739589</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41364</v>
       </c>
       <c r="B16">
-        <v>0.2331189</v>
-      </c>
-      <c r="C16">
         <v>0.009933494961712253</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41394</v>
       </c>
       <c r="B17">
-        <v>0.2540194</v>
-      </c>
-      <c r="C17">
         <v>0.01694929823879909</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41425</v>
       </c>
       <c r="B18">
-        <v>0.2651034000000001</v>
-      </c>
-      <c r="C18">
         <v>0.008838778730217545</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41455</v>
       </c>
       <c r="B19">
-        <v>0.2824499</v>
-      </c>
-      <c r="C19">
         <v>0.01371152745301285</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41486</v>
       </c>
       <c r="B20">
-        <v>0.2943091</v>
-      </c>
-      <c r="C20">
         <v>0.009247300810737213</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41517</v>
       </c>
       <c r="B21">
-        <v>0.3048652999999999</v>
-      </c>
-      <c r="C21">
         <v>0.008155857051457049</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41547</v>
       </c>
       <c r="B22">
-        <v>0.2859889</v>
-      </c>
-      <c r="C22">
         <v>-0.01446616750403273</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41578</v>
       </c>
       <c r="B23">
-        <v>0.2944753</v>
-      </c>
-      <c r="C23">
         <v>0.00659912383380612</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41608</v>
       </c>
       <c r="B24">
-        <v>0.3224640999999999</v>
-      </c>
-      <c r="C24">
         <v>0.02162173353172503</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41639</v>
       </c>
       <c r="B25">
-        <v>0.3139859</v>
-      </c>
-      <c r="C25">
         <v>-0.006410911267836994</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41670</v>
       </c>
       <c r="B26">
-        <v>0.3148309</v>
-      </c>
-      <c r="C26">
         <v>0.0006430814820768127</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41698</v>
       </c>
       <c r="B27">
-        <v>0.3186743000000001</v>
-      </c>
-      <c r="C27">
         <v>0.002923113534980093</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41729</v>
       </c>
       <c r="B28">
-        <v>0.3137392000000001</v>
-      </c>
-      <c r="C28">
         <v>-0.003742470752633897</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41759</v>
       </c>
       <c r="B29">
-        <v>0.3291004</v>
-      </c>
-      <c r="C29">
         <v>0.01169273170808927</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41790</v>
       </c>
       <c r="B30">
-        <v>0.3557741000000001</v>
-      </c>
-      <c r="C30">
         <v>0.02006898801625523</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41820</v>
       </c>
       <c r="B31">
-        <v>0.3748564000000001</v>
-      </c>
-      <c r="C31">
         <v>0.01407483739363369</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41851</v>
       </c>
       <c r="B32">
-        <v>0.3920018999999999</v>
-      </c>
-      <c r="C32">
         <v>0.01247075694596167</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41882</v>
       </c>
       <c r="B33">
-        <v>0.4008997999999999</v>
-      </c>
-      <c r="C33">
         <v>0.006392160815297698</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41912</v>
       </c>
       <c r="B34">
-        <v>0.4277394000000001</v>
-      </c>
-      <c r="C34">
         <v>0.01915882920391598</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41943</v>
       </c>
       <c r="B35">
-        <v>0.4405885</v>
-      </c>
-      <c r="C35">
         <v>0.008999611553761167</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41973</v>
       </c>
       <c r="B36">
-        <v>0.451519</v>
-      </c>
-      <c r="C36">
         <v>0.007587524126424716</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42004</v>
       </c>
       <c r="B37">
-        <v>0.4763941</v>
-      </c>
-      <c r="C37">
         <v>0.01713728859215768</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42035</v>
       </c>
       <c r="B38">
-        <v>0.4485805</v>
-      </c>
-      <c r="C38">
         <v>-0.01883887235799708</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42063</v>
       </c>
       <c r="B39">
-        <v>0.4517796999999999</v>
-      </c>
-      <c r="C39">
         <v>0.002208506879665784</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42094</v>
       </c>
       <c r="B40">
-        <v>0.4859125</v>
-      </c>
-      <c r="C40">
         <v>0.0235110051476819</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42124</v>
       </c>
       <c r="B41">
-        <v>0.4956856000000001</v>
-      </c>
-      <c r="C41">
         <v>0.00657717059382712</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42155</v>
       </c>
       <c r="B42">
-        <v>0.5168250000000001</v>
-      </c>
-      <c r="C42">
         <v>0.01413358529359376</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42185</v>
       </c>
       <c r="B43">
-        <v>0.5178952999999999</v>
-      </c>
-      <c r="C43">
         <v>0.0007056186442073731</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42216</v>
       </c>
       <c r="B44">
-        <v>0.5708500999999999</v>
-      </c>
-      <c r="C44">
         <v>0.03488699121737837</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42247</v>
       </c>
       <c r="B45">
-        <v>0.5909941999999999</v>
-      </c>
-      <c r="C45">
         <v>0.01282369336195743</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42277</v>
       </c>
       <c r="B46">
-        <v>0.6158079000000001</v>
-      </c>
-      <c r="C46">
         <v>0.01559634849705938</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42308</v>
       </c>
       <c r="B47">
-        <v>0.6342667</v>
-      </c>
-      <c r="C47">
         <v>0.01142388275239892</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42338</v>
       </c>
       <c r="B48">
-        <v>0.6230675000000001</v>
-      </c>
-      <c r="C48">
         <v>-0.006852737071617376</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42369</v>
       </c>
       <c r="B49">
-        <v>0.6476653000000001</v>
-      </c>
-      <c r="C49">
         <v>0.01515513063997642</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42400</v>
       </c>
       <c r="B50">
-        <v>0.65347841</v>
-      </c>
-      <c r="C50">
         <v>0.003528089108874033</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42429</v>
       </c>
       <c r="B51">
-        <v>0.6324970999999999</v>
-      </c>
-      <c r="C51">
         <v>-0.01268919501646226</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42460</v>
       </c>
       <c r="B52">
-        <v>0.6390170500000001</v>
-      </c>
-      <c r="C52">
         <v>0.00399385089259896</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42490</v>
       </c>
       <c r="B53">
-        <v>0.7090437999999999</v>
-      </c>
-      <c r="C53">
         <v>0.04272484535777088</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42521</v>
       </c>
       <c r="B54">
-        <v>0.7023272</v>
-      </c>
-      <c r="C54">
         <v>-0.003930033858699167</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42551</v>
       </c>
       <c r="B55">
-        <v>0.75069104</v>
-      </c>
-      <c r="C55">
         <v>0.02841042544582484</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42582</v>
       </c>
       <c r="B56">
-        <v>0.84682616</v>
-      </c>
-      <c r="C56">
         <v>0.05491267037043834</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42613</v>
       </c>
       <c r="B57">
-        <v>0.88364354</v>
-      </c>
-      <c r="C57">
         <v>0.01993548759348318</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42643</v>
       </c>
       <c r="B58">
-        <v>0.8925577200000001</v>
-      </c>
-      <c r="C58">
         <v>0.004732413437417149</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42674</v>
       </c>
       <c r="B59">
-        <v>0.95956109</v>
-      </c>
-      <c r="C59">
         <v>0.03540360713542734</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42704</v>
       </c>
       <c r="B60">
-        <v>0.9425138</v>
-      </c>
-      <c r="C60">
         <v>-0.00869954505985826</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42735</v>
       </c>
       <c r="B61">
-        <v>1.00519034</v>
-      </c>
-      <c r="C61">
         <v>0.03226568583450984</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42766</v>
       </c>
       <c r="B62">
-        <v>1.05265066</v>
-      </c>
-      <c r="C62">
         <v>0.02366873560741367</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42794</v>
       </c>
       <c r="B63">
-        <v>1.08087989</v>
-      </c>
-      <c r="C63">
         <v>0.01375257395235496</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42825</v>
       </c>
       <c r="B64">
-        <v>1.08998989</v>
-      </c>
-      <c r="C64">
         <v>0.004377955711802439</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42855</v>
       </c>
       <c r="B65">
-        <v>1.10362428</v>
-      </c>
-      <c r="C65">
         <v>0.006523663135997282</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42886</v>
       </c>
       <c r="B66">
-        <v>1.07043044</v>
-      </c>
-      <c r="C66">
         <v>-0.01577935770925787</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42916</v>
       </c>
       <c r="B67">
-        <v>1.07610254</v>
-      </c>
-      <c r="C67">
         <v>0.002739575254699256</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42947</v>
       </c>
       <c r="B68">
-        <v>1.12278132</v>
-      </c>
-      <c r="C68">
         <v>0.0224838509180767</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42978</v>
       </c>
       <c r="B69">
-        <v>1.18877554</v>
-      </c>
-      <c r="C69">
         <v>0.0310885626221733</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43008</v>
       </c>
       <c r="B70">
-        <v>1.24511905</v>
-      </c>
-      <c r="C70">
         <v>0.02574202286635563</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43039</v>
       </c>
       <c r="B71">
-        <v>1.2564022</v>
-      </c>
-      <c r="C71">
         <v>0.005025635500264469</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43069</v>
       </c>
       <c r="B72">
-        <v>1.21816063</v>
-      </c>
-      <c r="C72">
         <v>-0.01694802903489467</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43100</v>
       </c>
       <c r="B73">
-        <v>1.24674072</v>
-      </c>
-      <c r="C73">
         <v>0.01288458987751495</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43131</v>
       </c>
       <c r="B74">
-        <v>1.29632405</v>
-      </c>
-      <c r="C74">
         <v>0.02206900402819945</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43159</v>
       </c>
       <c r="B75">
-        <v>1.33313332</v>
-      </c>
-      <c r="C75">
         <v>0.01602964964809739</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43190</v>
       </c>
       <c r="B76">
-        <v>1.34490437</v>
-      </c>
-      <c r="C76">
         <v>0.005045168186102567</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43220</v>
       </c>
       <c r="B77">
-        <v>1.36278434</v>
-      </c>
-      <c r="C77">
         <v>0.007625031634019397</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43251</v>
       </c>
       <c r="B78">
-        <v>1.38899537</v>
-      </c>
-      <c r="C78">
         <v>0.01109328073504989</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43281</v>
       </c>
       <c r="B79">
-        <v>1.40124603</v>
-      </c>
-      <c r="C79">
         <v>0.005127954684985392</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43312</v>
       </c>
       <c r="B80">
-        <v>1.42964742</v>
-      </c>
-      <c r="C80">
         <v>0.01182777176731031</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43343</v>
       </c>
       <c r="B81">
-        <v>1.4268647</v>
-      </c>
-      <c r="C81">
         <v>-0.001145318442953291</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43373</v>
       </c>
       <c r="B82">
-        <v>1.43133164</v>
-      </c>
-      <c r="C82">
         <v>0.001840621770138107</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43404</v>
       </c>
       <c r="B83">
-        <v>1.48401804</v>
-      </c>
-      <c r="C83">
         <v>0.02166977105599632</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43434</v>
       </c>
       <c r="B84">
-        <v>1.50215144</v>
-      </c>
-      <c r="C84">
         <v>0.007300027498995165</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43465</v>
       </c>
       <c r="B85">
-        <v>1.53534663</v>
-      </c>
-      <c r="C85">
         <v>0.01326665903163704</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43496</v>
       </c>
       <c r="B86">
-        <v>1.54848364</v>
-      </c>
-      <c r="C86">
         <v>0.005181543953222789</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43524</v>
       </c>
       <c r="B87">
-        <v>1.53368533</v>
-      </c>
-      <c r="C87">
         <v>-0.005806711790388497</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43555</v>
       </c>
       <c r="B88">
-        <v>1.52771095</v>
-      </c>
-      <c r="C88">
         <v>-0.002357980262687187</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43585</v>
       </c>
       <c r="B89">
-        <v>1.52554034</v>
-      </c>
-      <c r="C89">
         <v>-0.0008587255595817744</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43616</v>
       </c>
       <c r="B90">
-        <v>1.52460532</v>
-      </c>
-      <c r="C90">
         <v>-0.0003702257236564144</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43646</v>
       </c>
       <c r="B91">
-        <v>1.56781358</v>
-      </c>
-      <c r="C91">
         <v>0.01711485738293539</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43677</v>
       </c>
       <c r="B92">
-        <v>1.63097476</v>
-      </c>
-      <c r="C92">
         <v>0.0245972606780902</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43708</v>
       </c>
       <c r="B93">
-        <v>1.63545843</v>
-      </c>
-      <c r="C93">
         <v>0.001704185866078012</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43738</v>
       </c>
       <c r="B94">
-        <v>1.63089005</v>
-      </c>
-      <c r="C94">
         <v>-0.001733428973114126</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43769</v>
       </c>
       <c r="B95">
-        <v>1.66782012</v>
-      </c>
-      <c r="C95">
         <v>0.01403710124640134</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43799</v>
       </c>
       <c r="B96">
-        <v>1.662525</v>
-      </c>
-      <c r="C96">
         <v>-0.001984811479718518</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43830</v>
       </c>
       <c r="B97">
-        <v>1.76713942</v>
-      </c>
-      <c r="C97">
         <v>0.03929143200533325</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43861</v>
       </c>
       <c r="B98">
-        <v>1.80976634</v>
-      </c>
-      <c r="C98">
         <v>0.0154046882104697</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43890</v>
       </c>
       <c r="B99">
-        <v>1.82748261</v>
-      </c>
-      <c r="C99">
         <v>0.006305246720266444</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43921</v>
       </c>
       <c r="B100">
-        <v>1.68471562</v>
-      </c>
-      <c r="C100">
         <v>-0.05049261470082045</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43951</v>
       </c>
       <c r="B101">
-        <v>1.67635758</v>
-      </c>
-      <c r="C101">
         <v>-0.003113193791452695</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43982</v>
       </c>
       <c r="B102">
-        <v>1.69161038</v>
-      </c>
-      <c r="C102">
         <v>0.005699088983468492</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44012</v>
       </c>
       <c r="B103">
-        <v>1.65877964</v>
-      </c>
-      <c r="C103">
         <v>-0.01219743401346229</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44043</v>
       </c>
       <c r="B104">
-        <v>1.66599406</v>
-      </c>
-      <c r="C104">
         <v>0.002713432843949315</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44074</v>
       </c>
       <c r="B105">
-        <v>1.65122639</v>
-      </c>
-      <c r="C105">
         <v>-0.005539273407083267</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44104</v>
       </c>
       <c r="B106">
-        <v>1.6133811</v>
-      </c>
-      <c r="C106">
         <v>-0.01427463536978457</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>44135</v>
       </c>
       <c r="B107">
-        <v>1.56513746</v>
-      </c>
-      <c r="C107">
         <v>-0.01846023911323147</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>44165</v>
       </c>
       <c r="B108">
-        <v>1.55515737</v>
-      </c>
-      <c r="C108">
-        <v>-0.003890664791118104</v>
+        <v>-0.004227149682652809</v>
       </c>
     </row>
   </sheetData>
